--- a/Idea.xlsx
+++ b/Idea.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,6 +95,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>325714</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>27924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{945EEDD8-0B5D-477A-84F0-D184DD00AD65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4365171" y="0"/>
+          <a:ext cx="6857143" cy="5209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>118666</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>37286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAA2B02D-DCD1-47AF-9A38-871334765030}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4365171" y="5551714"/>
+          <a:ext cx="8609524" cy="6514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -363,15 +456,15 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -382,7 +475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -390,7 +483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -398,7 +491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>4</v>
       </c>
@@ -406,7 +499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -414,7 +507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>
@@ -422,7 +515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>7</v>
       </c>
@@ -432,5 +525,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>